--- a/biology/Microbiologie/Aérotaxie/Aérotaxie.xlsx
+++ b/biology/Microbiologie/Aérotaxie/Aérotaxie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A%C3%A9rotaxie</t>
+          <t>Aérotaxie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aérotaxie est la capacité qu'ont certains micro-organismes à percevoir la concentration en oxygène (aréotactisme) et à coordonner leurs mouvements vers le milieu qui contient une concentration en O2 optimale pour leur croissance[1].
-Les bactéries magnétotactiques découvertes en 1975 par R. P. Blakemore, présentent généralement également une aérotaxie[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aérotaxie est la capacité qu'ont certains micro-organismes à percevoir la concentration en oxygène (aréotactisme) et à coordonner leurs mouvements vers le milieu qui contient une concentration en O2 optimale pour leur croissance.
+Les bactéries magnétotactiques découvertes en 1975 par R. P. Blakemore, présentent généralement également une aérotaxie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A%C3%A9rotaxie</t>
+          <t>Aérotaxie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Romaric Forêt, Dictionnaire des sciences de la vie, De Boeck Superieur, 13 novembre 2018 (ISBN 978-2-8073-0699-8, lire en ligne), p. 72
